--- a/Обрабатываемые/Опросный лист ЖУЗ.xlsx
+++ b/Обрабатываемые/Опросный лист ЖУЗ.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Рабочее\_Журналы\ОЛ с валидацией данных 3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\geg\Desktop\obrabotka_ol\Обрабатываемые\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11700" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Перечень ПЗ и ЗН" sheetId="7" state="hidden" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Права персонала" sheetId="3" r:id="rId4"/>
     <sheet name="Интеграция с ОЖ" sheetId="6" state="hidden" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913" iterateDelta="1E-4"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1024,6 +1024,431 @@
   </cellStyles>
   <dxfs count="28">
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF9B9B"/>
@@ -1043,431 +1468,6 @@
           <bgColor rgb="FFFF9B9B"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -1856,16 +1856,16 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица2" displayName="Таблица2" ref="A9:L11" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16" tableBorderDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="ЖУЗ" displayName="ЖУЗ" ref="A9:L11" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13" tableBorderDxfId="12">
   <autoFilter ref="A9:L11"/>
   <tableColumns count="12">
-    <tableColumn id="1" name="№" dataDxfId="14">
+    <tableColumn id="1" name="№" dataDxfId="11">
       <calculatedColumnFormula>IFERROR(A9+1,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="Организация" dataDxfId="13"/>
-    <tableColumn id="4" name="Подразделение" dataDxfId="12"/>
-    <tableColumn id="2" name="ФИО" dataDxfId="11"/>
-    <tableColumn id="12" name="Столбец1" dataDxfId="10">
+    <tableColumn id="11" name="Организация" dataDxfId="10"/>
+    <tableColumn id="4" name="Подразделение" dataDxfId="9"/>
+    <tableColumn id="2" name="ФИО" dataDxfId="8"/>
+    <tableColumn id="12" name="Столбец1" dataDxfId="7">
       <calculatedColumnFormula>IF(ISERR(SEARCH(".",D10)),
                              IF(LEN(TRIM(D10))-LEN(SUBSTITUTE(TRIM(D10)," ",""))&gt;=2,
                                           IF(LEN(LEFT(D10,FIND(" ",D10)-1))&gt;=2,
@@ -1876,13 +1876,13 @@
                               FALSE),
                 FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Должность" dataDxfId="9"/>
-    <tableColumn id="5" name="Мобильный телефон*" dataDxfId="8"/>
-    <tableColumn id="6" name="Электронная почта*" dataDxfId="7" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="7" name="Учетная запись в MS AD" dataDxfId="6"/>
-    <tableColumn id="8" name="ЖУЗ. Просмотр" dataDxfId="5"/>
-    <tableColumn id="9" name="ЖУЗ. Ведение" dataDxfId="4"/>
-    <tableColumn id="10" name="Разрешение на установку/снятие" dataDxfId="3"/>
+    <tableColumn id="3" name="Должность" dataDxfId="6"/>
+    <tableColumn id="5" name="Мобильный телефон*" dataDxfId="5"/>
+    <tableColumn id="6" name="Электронная почта*" dataDxfId="4" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="7" name="Учетная запись в MS AD" dataDxfId="3"/>
+    <tableColumn id="8" name="ЖУЗ. Просмотр" dataDxfId="2"/>
+    <tableColumn id="9" name="ЖУЗ. Ведение" dataDxfId="1"/>
+    <tableColumn id="10" name="Разрешение на установку/снятие" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2497,7 +2497,7 @@
   <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18:D19"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2761,17 +2761,17 @@
     <mergeCell ref="A2:L2"/>
   </mergeCells>
   <conditionalFormatting sqref="I10:I11">
-    <cfRule type="containsBlanks" dxfId="2" priority="3">
+    <cfRule type="containsBlanks" dxfId="17" priority="3">
       <formula>LEN(TRIM(I10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10:B11">
-    <cfRule type="containsBlanks" dxfId="1" priority="2">
+    <cfRule type="containsBlanks" dxfId="16" priority="2">
       <formula>LEN(TRIM(B10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10:C11">
-    <cfRule type="containsBlanks" dxfId="0" priority="1">
+    <cfRule type="containsBlanks" dxfId="15" priority="1">
       <formula>LEN(TRIM(C10))=0</formula>
     </cfRule>
   </conditionalFormatting>
